--- a/sample/毎回配信者が同じ/スケジュール表.xlsx
+++ b/sample/毎回配信者が同じ/スケジュール表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OmegaRin\ネット+音楽活動\配信・動画関連\tools\multi_task_assistant_for_discord\sample\毎回配信者が同じ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDB59D4-BC42-4FC4-AFA7-8F2610105C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D330C288-A154-4ED5-BEB8-1D78BDA9D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA422CED-88E5-44EF-A937-56C46D7484AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA422CED-88E5-44EF-A937-56C46D7484AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>開始時間</t>
     <rPh sb="0" eb="4">
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>ツイキャス</t>
+  </si>
+  <si>
+    <t>ニコ生</t>
+  </si>
+  <si>
+    <t>お休み</t>
+  </si>
+  <si>
+    <t>雑談</t>
   </si>
 </sst>
 </file>
@@ -332,8 +341,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -349,7 +358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2324100" y="4305300"/>
-          <a:ext cx="7115175" cy="2105026"/>
+          <a:ext cx="7115175" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -386,14 +395,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>日付：任意の日付を入力する</a:t>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フォーマットを変更しないでください</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -401,14 +410,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>開始時間、終了時間：任意の時間を入力する（現在終了時間はスケジュール上には反映されない）</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日付：任意の日付を入力する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -416,30 +425,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>内容：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>M</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>列に入力可能な選択肢が書かれているのでそこから選ぶ。</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開始時間、終了時間：任意の時間を入力する（現在終了時間はスケジュール上には反映されない）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -447,15 +440,15 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　選択肢の内容を変えるには</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>内容：</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>M</a:t>
@@ -463,14 +456,45 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>列のオレンジ色で囲われている範囲に内容を入力および削除をする。</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>列に入力可能な選択肢が書かれているのでそこから選ぶ。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　選択肢の内容を変えるには</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>列のオレンジ色で囲われている範囲に内容を入力および削除をする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -495,7 +519,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>　　　ただし、内容は、</a:t>
@@ -503,7 +527,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>config.json</a:t>
@@ -511,7 +535,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>の</a:t>
@@ -519,7 +543,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>contents</a:t>
@@ -527,14 +551,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>の内容と一致する必要がある。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -1167,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE74225-E828-4553-A72D-DD4364D83BDD}">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1266,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>13</v>
@@ -1279,17 +1303,10 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1308,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1324,7 +1341,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1346,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1436,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC32E96-67B4-4DD5-A03D-7450DDA2AAD6}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1562,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1580,18 +1597,12 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.875</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1614,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1635,7 +1646,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1662,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
